--- a/results/tables/rankings/Most_reported_ADR_for_most_reported_inter_drugs.xlsx
+++ b/results/tables/rankings/Most_reported_ADR_for_most_reported_inter_drugs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t xml:space="preserve">substance</t>
   </si>
@@ -20,9 +20,15 @@
     <t xml:space="preserve">N</t>
   </si>
   <si>
+    <t xml:space="preserve">mrid</t>
+  </si>
+  <si>
     <t xml:space="preserve">drug interaction</t>
   </si>
   <si>
+    <t xml:space="preserve">warfarin</t>
+  </si>
+  <si>
     <t xml:space="preserve">international normalised ratio increased</t>
   </si>
   <si>
@@ -50,6 +56,9 @@
     <t xml:space="preserve">haematoma</t>
   </si>
   <si>
+    <t xml:space="preserve">tacrolimus</t>
+  </si>
+  <si>
     <t xml:space="preserve">acute kidney injury</t>
   </si>
   <si>
@@ -77,9 +86,15 @@
     <t xml:space="preserve">blood creatinine increased</t>
   </si>
   <si>
+    <t xml:space="preserve">acetylsalicylic acid</t>
+  </si>
+  <si>
     <t xml:space="preserve">product administration error</t>
   </si>
   <si>
+    <t xml:space="preserve">quetiapine</t>
+  </si>
+  <si>
     <t xml:space="preserve">somnolence</t>
   </si>
   <si>
@@ -101,6 +116,9 @@
     <t xml:space="preserve">dizziness</t>
   </si>
   <si>
+    <t xml:space="preserve">valproic acid</t>
+  </si>
+  <si>
     <t xml:space="preserve">seizure</t>
   </si>
   <si>
@@ -110,12 +128,18 @@
     <t xml:space="preserve">hyperammonaemic encephalopathy</t>
   </si>
   <si>
+    <t xml:space="preserve">rivaroxaban</t>
+  </si>
+  <si>
     <t xml:space="preserve">rectal haemorrhage</t>
   </si>
   <si>
     <t xml:space="preserve">upper gastrointestinal haemorrhage</t>
   </si>
   <si>
+    <t xml:space="preserve">paracetamol</t>
+  </si>
+  <si>
     <t xml:space="preserve">overdose</t>
   </si>
   <si>
@@ -128,12 +152,18 @@
     <t xml:space="preserve">pain</t>
   </si>
   <si>
+    <t xml:space="preserve">ritonavir</t>
+  </si>
+  <si>
     <t xml:space="preserve">cushing's syndrome</t>
   </si>
   <si>
     <t xml:space="preserve">electrocardiogram qt prolonged</t>
   </si>
   <si>
+    <t xml:space="preserve">clozapine</t>
+  </si>
+  <si>
     <t xml:space="preserve">antipsychotic drug level increased</t>
   </si>
   <si>
@@ -144,6 +174,9 @@
   </si>
   <si>
     <t xml:space="preserve">neutropenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">furosemide</t>
   </si>
   <si>
     <t xml:space="preserve">hyperkalaemia</t>
@@ -497,805 +530,1108 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>3137</v>
       </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>1502</v>
       </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n">
         <v>492</v>
       </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n">
         <v>254</v>
       </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n">
         <v>217</v>
       </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n">
         <v>213</v>
       </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n">
         <v>205</v>
       </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n">
         <v>192</v>
       </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n">
         <v>185</v>
       </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n">
         <v>157</v>
       </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" t="n">
         <v>2748</v>
       </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n">
         <v>686</v>
       </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n">
         <v>570</v>
       </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n">
         <v>563</v>
       </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n">
         <v>527</v>
       </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n">
         <v>313</v>
       </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n">
         <v>211</v>
       </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n">
         <v>195</v>
       </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n">
         <v>187</v>
       </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n">
         <v>185</v>
       </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22" t="n">
         <v>2647</v>
       </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B23" t="n">
         <v>618</v>
       </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B24" t="n">
         <v>401</v>
       </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B25" t="n">
         <v>367</v>
       </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B26" t="n">
         <v>270</v>
       </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B27" t="n">
         <v>236</v>
       </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B28" t="n">
         <v>194</v>
       </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B29" t="n">
         <v>189</v>
       </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B30" t="n">
         <v>188</v>
       </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B31" t="n">
         <v>180</v>
       </c>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B32" t="n">
         <v>2351</v>
       </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B33" t="n">
         <v>294</v>
       </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B34" t="n">
         <v>225</v>
       </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B35" t="n">
         <v>223</v>
       </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B36" t="n">
         <v>220</v>
       </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B37" t="n">
         <v>193</v>
       </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B38" t="n">
         <v>182</v>
       </c>
+      <c r="C38" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B39" t="n">
         <v>173</v>
       </c>
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B40" t="n">
         <v>166</v>
       </c>
+      <c r="C40" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B41" t="n">
         <v>165</v>
       </c>
+      <c r="C41" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B42" t="n">
         <v>2208</v>
       </c>
+      <c r="C42" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B43" t="n">
         <v>236</v>
       </c>
+      <c r="C43" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B44" t="n">
         <v>231</v>
       </c>
+      <c r="C44" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n">
         <v>178</v>
       </c>
+      <c r="C45" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n">
         <v>151</v>
       </c>
+      <c r="C46" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B47" t="n">
         <v>145</v>
       </c>
+      <c r="C47" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B48" t="n">
         <v>129</v>
       </c>
+      <c r="C48" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B49" t="n">
         <v>128</v>
       </c>
+      <c r="C49" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B50" t="n">
         <v>118</v>
       </c>
+      <c r="C50" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B51" t="n">
         <v>110</v>
       </c>
+      <c r="C51" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B52" t="n">
         <v>1038</v>
       </c>
+      <c r="C52" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B53" t="n">
         <v>449</v>
       </c>
+      <c r="C53" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B54" t="n">
         <v>150</v>
       </c>
+      <c r="C54" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B55" t="n">
         <v>137</v>
       </c>
+      <c r="C55" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B56" t="n">
         <v>124</v>
       </c>
+      <c r="C56" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B57" t="n">
         <v>114</v>
       </c>
+      <c r="C57" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B58" t="n">
         <v>104</v>
       </c>
+      <c r="C58" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B59" t="n">
         <v>95</v>
       </c>
+      <c r="C59" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B60" t="n">
         <v>93</v>
       </c>
+      <c r="C60" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B61" t="n">
         <v>93</v>
       </c>
+      <c r="C61" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B62" t="n">
         <v>1758</v>
       </c>
+      <c r="C62" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B63" t="n">
         <v>275</v>
       </c>
+      <c r="C63" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B64" t="n">
         <v>173</v>
       </c>
+      <c r="C64" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B65" t="n">
         <v>170</v>
       </c>
+      <c r="C65" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B66" t="n">
         <v>148</v>
       </c>
+      <c r="C66" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B67" t="n">
         <v>135</v>
       </c>
+      <c r="C67" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B68" t="n">
         <v>133</v>
       </c>
+      <c r="C68" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B69" t="n">
         <v>125</v>
       </c>
+      <c r="C69" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B70" t="n">
         <v>125</v>
       </c>
+      <c r="C70" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B71" t="n">
         <v>124</v>
       </c>
+      <c r="C71" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B72" t="n">
         <v>2194</v>
       </c>
+      <c r="C72" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B73" t="n">
         <v>386</v>
       </c>
+      <c r="C73" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B74" t="n">
         <v>372</v>
       </c>
+      <c r="C74" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B75" t="n">
         <v>307</v>
       </c>
+      <c r="C75" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B76" t="n">
         <v>246</v>
       </c>
+      <c r="C76" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B77" t="n">
         <v>242</v>
       </c>
+      <c r="C77" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B78" t="n">
         <v>221</v>
       </c>
+      <c r="C78" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B79" t="n">
         <v>217</v>
       </c>
+      <c r="C79" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B80" t="n">
         <v>142</v>
       </c>
+      <c r="C80" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B81" t="n">
         <v>112</v>
       </c>
+      <c r="C81" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B82" t="n">
         <v>1164</v>
       </c>
+      <c r="C82" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B83" t="n">
         <v>188</v>
       </c>
+      <c r="C83" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B84" t="n">
         <v>134</v>
       </c>
+      <c r="C84" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B85" t="n">
         <v>119</v>
       </c>
+      <c r="C85" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B86" t="n">
         <v>107</v>
       </c>
+      <c r="C86" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B87" t="n">
         <v>100</v>
       </c>
+      <c r="C87" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B88" t="n">
         <v>93</v>
       </c>
+      <c r="C88" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B89" t="n">
         <v>85</v>
       </c>
+      <c r="C89" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B90" t="n">
         <v>78</v>
       </c>
+      <c r="C90" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B91" t="n">
         <v>71</v>
       </c>
+      <c r="C91" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B92" t="n">
         <v>1530</v>
       </c>
+      <c r="C92" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B93" t="n">
         <v>653</v>
       </c>
+      <c r="C93" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B94" t="n">
         <v>262</v>
       </c>
+      <c r="C94" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B95" t="n">
         <v>237</v>
       </c>
+      <c r="C95" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B96" t="n">
         <v>189</v>
       </c>
+      <c r="C96" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B97" t="n">
         <v>109</v>
       </c>
+      <c r="C97" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B98" t="n">
         <v>104</v>
       </c>
+      <c r="C98" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B99" t="n">
         <v>104</v>
       </c>
+      <c r="C99" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B100" t="n">
         <v>101</v>
       </c>
+      <c r="C100" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B101" t="n">
         <v>91</v>
+      </c>
+      <c r="C101" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
